--- a/cheatsheets/rscs-01-import/data/readxl/readxl-data.xlsx
+++ b/cheatsheets/rscs-01-import/data/readxl/readxl-data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjfrigaard/Dropbox/@projects/high-priority/@data-journalism/course-website/csuc-data-jounalism-learnr/cheatsheets/rscs-01-import/data/readxl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FD275821-3471-6440-AAD9-9DE559B4B1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD1E8A-9054-4148-A919-DBB0543814F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1220" windowWidth="28040" windowHeight="17440" activeTab="2"/>
+    <workbookView xWindow="3500" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f1.csv" sheetId="1" r:id="rId1"/>
@@ -22,27 +22,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>C</t>
   </si>
   <si>
-    <t> B</t>
-  </si>
-  <si>
-    <t> C</t>
-  </si>
-  <si>
-    <t> NA</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -520,8 +514,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -876,28 +871,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2">
@@ -908,7 +906,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
@@ -919,9 +917,6 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
       <c r="B4">
         <v>8</v>
       </c>
@@ -935,28 +930,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>9</v>
       </c>
       <c r="B2">
@@ -967,7 +965,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
@@ -978,14 +976,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -994,30 +989,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
         <v>2.2000000000000002</v>
       </c>
@@ -1026,7 +1021,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3">
@@ -1037,7 +1032,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
